--- a/test_project/Issue.xlsx
+++ b/test_project/Issue.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t xml:space="preserve">Approval Date</t>
   </si>
@@ -52,31 +52,76 @@
     <t xml:space="preserve">Price Code</t>
   </si>
   <si>
-    <t xml:space="preserve">1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_9</t>
+    <t xml:space="preserve">Lot Details (If Any)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECTION YES/NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECTION CRITERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASKING RATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROKER NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTY NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBYSK10</t>
   </si>
 </sst>
 </file>
@@ -197,15 +242,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -239,6 +294,33 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -248,28 +330,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,31 +377,49 @@
         <v>44563</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,31 +427,49 @@
         <v>44564</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,31 +477,49 @@
         <v>44565</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,31 +527,49 @@
         <v>44566</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,31 +577,49 @@
         <v>44567</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,31 +627,49 @@
         <v>44568</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,31 +677,49 @@
         <v>44569</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,33 +727,93 @@
         <v>44570</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
+        <v>22</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
